--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
+    <sheet name="~备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -51,6 +52,58 @@
   </si>
   <si>
     <t>老鼠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -802,14 +855,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -836,6 +882,44 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -947,6 +1031,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1029,15 +1120,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:C4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A3:C4"/>
-  <sortState ref="A4:C4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E4"/>
+  <sortState ref="A4:E4">
     <sortCondition ref="A3:A4"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="3"/>
-    <tableColumn id="2" name="Name" dataDxfId="2"/>
-    <tableColumn id="14" name="Url" dataDxfId="1"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Atk" dataDxfId="2"/>
+    <tableColumn id="4" name="Hp" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1364,46 +1457,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1411,24 +1516,36 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>41000001</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="0" priority="25">
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="containsBlanks" dxfId="8" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1438,4 +1555,95 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -51,10 +51,6 @@
     <t>Url</t>
   </si>
   <si>
-    <t>老鼠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>虫</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -104,6 +100,60 @@
   </si>
   <si>
     <t>Hp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>组别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
+    <t>蜻蜓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hawk</t>
+  </si>
+  <si>
+    <t>雷霆战鹰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>灰狼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fighter</t>
+  </si>
+  <si>
+    <t>勇士</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightking</t>
+  </si>
+  <si>
+    <t>光之王</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +905,33 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1031,13 +1107,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1120,17 +1189,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E4"/>
-  <sortState ref="A4:E4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A3:F9"/>
+  <sortState ref="A4:F4">
     <sortCondition ref="A3:A4"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Atk" dataDxfId="2"/>
-    <tableColumn id="4" name="Hp" dataDxfId="1"/>
-    <tableColumn id="14" name="Url" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Id" dataDxfId="6"/>
+    <tableColumn id="2" name="Name" dataDxfId="5"/>
+    <tableColumn id="5" name="Group" dataDxfId="0"/>
+    <tableColumn id="3" name="Atk" dataDxfId="4"/>
+    <tableColumn id="4" name="Hp" dataDxfId="3"/>
+    <tableColumn id="14" name="Url" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1457,24 +1527,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="2" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1482,16 +1552,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1499,16 +1572,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1516,36 +1592,142 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
-        <v>41000001</v>
+        <v>41001001</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>41002001</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>41003001</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>41004001</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="E7" s="10">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>41005001</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D8" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
-        <v>1</v>
+      <c r="E8" s="10">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>41006001</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E4">
-    <cfRule type="containsBlanks" dxfId="8" priority="25">
+  <conditionalFormatting sqref="B4:F9">
+    <cfRule type="containsBlanks" dxfId="1" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1569,15 +1751,15 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1588,7 +1770,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1599,7 +1781,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1610,7 +1792,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1621,7 +1803,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1632,7 +1814,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>6</v>

--- a/ConfigData/Xlsx/Monster.xlsx
+++ b/ConfigData/Xlsx/Monster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -51,14 +51,6 @@
     <t>Url</t>
   </si>
   <si>
-    <t>虫</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>级别</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -67,22 +59,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>神</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击力</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -115,45 +91,98 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>dragonfly</t>
-  </si>
-  <si>
-    <t>蜻蜓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hawk</t>
-  </si>
-  <si>
-    <t>雷霆战鹰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t>灰狼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fighter</t>
-  </si>
-  <si>
-    <t>勇士</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightking</t>
-  </si>
-  <si>
-    <t>光之王</t>
+    <t>King</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>士</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clients</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>马/幕僚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minister</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>车/将军</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相/谋臣/主将</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马禁卫军</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞培</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g4-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴图斯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g6-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥古斯都</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西庇阿</t>
+  </si>
+  <si>
+    <t>g5-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g3-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿格里帕</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -920,17 +949,18 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -946,18 +976,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1107,6 +1129,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1189,18 +1218,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A3:F9"/>
   <sortState ref="A4:F4">
     <sortCondition ref="A3:A4"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="6"/>
-    <tableColumn id="2" name="Name" dataDxfId="5"/>
-    <tableColumn id="5" name="Group" dataDxfId="0"/>
-    <tableColumn id="3" name="Atk" dataDxfId="4"/>
-    <tableColumn id="4" name="Hp" dataDxfId="3"/>
-    <tableColumn id="14" name="Url" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" name="Name" dataDxfId="4"/>
+    <tableColumn id="5" name="Group" dataDxfId="3"/>
+    <tableColumn id="3" name="Atk" dataDxfId="2"/>
+    <tableColumn id="4" name="Hp" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1533,7 +1562,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1552,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1572,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -1592,13 +1621,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
@@ -1609,7 +1638,7 @@
         <v>41001001</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -1621,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1629,7 +1658,7 @@
         <v>41002001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -1641,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1649,7 +1678,7 @@
         <v>41003001</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -1661,7 +1690,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1669,19 +1698,19 @@
         <v>41004001</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
       </c>
       <c r="D7" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10">
         <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1689,19 +1718,19 @@
         <v>41005001</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10">
         <v>5</v>
       </c>
       <c r="D8" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10">
         <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1709,7 +1738,7 @@
         <v>41006001</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10">
         <v>6</v>
@@ -1721,13 +1750,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:F9">
-    <cfRule type="containsBlanks" dxfId="1" priority="25">
+    <cfRule type="containsBlanks" dxfId="9" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1741,25 +1770,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1768,9 +1803,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1779,9 +1817,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1790,9 +1831,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1801,9 +1845,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1812,9 +1859,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>6</v>
